--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linds\Desktop\Liv-stuff\MAESTRIA\SEGUNDO SEMESTRE\ASISTENCIA\lab 7 JP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamariacuesta/Documents/EDA/ISIS1225-Laboratorio-7-/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FE89C1-6036-4B20-A2C9-FA3316217E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBCA04A-96C9-1648-BDBF-5DB5FF95B0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="767" activeTab="2" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Carga de Catálogo PROBING (-large)</t>
   </si>
@@ -71,6 +71,51 @@
   </si>
   <si>
     <t>Tiempo de Ejecución Real @SC [ms]</t>
+  </si>
+  <si>
+    <t>276134.01</t>
+  </si>
+  <si>
+    <t>14165365.43</t>
+  </si>
+  <si>
+    <t>46992.85</t>
+  </si>
+  <si>
+    <t>2400392.20</t>
+  </si>
+  <si>
+    <t>32179.43</t>
+  </si>
+  <si>
+    <t>1971988.06</t>
+  </si>
+  <si>
+    <t>27466.22</t>
+  </si>
+  <si>
+    <t>1698809.11</t>
+  </si>
+  <si>
+    <t>19591.56</t>
+  </si>
+  <si>
+    <t>1088613.95</t>
+  </si>
+  <si>
+    <t>17956.07</t>
+  </si>
+  <si>
+    <t>884653.55</t>
+  </si>
+  <si>
+    <t>16805.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 787569.83</t>
+  </si>
+  <si>
+    <t>3179718.32</t>
   </si>
 </sst>
 </file>
@@ -455,7 +500,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -621,13 +666,24 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Datos Lab7'!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>14165365.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3179718.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400392.20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1971988.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -635,6 +691,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -728,13 +796,24 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Datos Lab7'!$B$11:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>1698809.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1088613.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>884653.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 787569.83</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -742,6 +821,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1079,7 +1170,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1299,6 +1390,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1445,6 +1548,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2823,7 +2938,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CAFD5B44-21B9-42C7-B503-C146EF1BA3EE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2834,7 +2949,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{680E7371-595A-4F03-ABE3-E0257A96E5F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2845,7 +2960,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664087" cy="6276731"/>
+    <xdr:ext cx="8683256" cy="6305698"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2878,7 +2993,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664087" cy="6276731"/>
+    <xdr:ext cx="8683256" cy="6305698"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2932,7 +3047,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3230,25 +3345,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C14"/>
+    <sheetView topLeftCell="A7" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3259,42 +3374,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>0.1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>0.7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>37497</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>0.9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3305,35 +3436,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -3348,12 +3495,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3606,20 +3755,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3644,12 +3794,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamariacuesta/Documents/EDA/ISIS1225-Laboratorio-7-/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_sanchezc234_uniandes_edu_co/Documents/Segundo_Semestre/UniAndes/EDA/Laboratorio/ISIS1225-Laboratorio-7-/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBCA04A-96C9-1648-BDBF-5DB5FF95B0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{7DBCA04A-96C9-1648-BDBF-5DB5FF95B0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B546A358-2478-1F42-93C7-8B2D7F2820A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="767" activeTab="2" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17240" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Carga de Catálogo PROBING (-large)</t>
   </si>
@@ -71,51 +71,6 @@
   </si>
   <si>
     <t>Tiempo de Ejecución Real @SC [ms]</t>
-  </si>
-  <si>
-    <t>276134.01</t>
-  </si>
-  <si>
-    <t>14165365.43</t>
-  </si>
-  <si>
-    <t>46992.85</t>
-  </si>
-  <si>
-    <t>2400392.20</t>
-  </si>
-  <si>
-    <t>32179.43</t>
-  </si>
-  <si>
-    <t>1971988.06</t>
-  </si>
-  <si>
-    <t>27466.22</t>
-  </si>
-  <si>
-    <t>1698809.11</t>
-  </si>
-  <si>
-    <t>19591.56</t>
-  </si>
-  <si>
-    <t>1088613.95</t>
-  </si>
-  <si>
-    <t>17956.07</t>
-  </si>
-  <si>
-    <t>884653.55</t>
-  </si>
-  <si>
-    <t>16805.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 787569.83</t>
-  </si>
-  <si>
-    <t>3179718.32</t>
   </si>
 </sst>
 </file>
@@ -214,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,11 +204,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -271,7 +232,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -298,82 +285,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -447,6 +358,31 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -666,9 +602,10 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Datos Lab7'!$B$3:$B$6</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>14165365.43</c:v>
@@ -677,13 +614,13 @@
                   <c:v>3179718.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2400392.20</c:v>
+                  <c:v>2400392.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1971988.06</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -692,16 +629,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>276134.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>46992.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>37497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>32179.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,9 +733,10 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Datos Lab7'!$B$11:$B$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1698809.11</c:v>
@@ -810,28 +748,28 @@
                   <c:v>884653.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 787569.83</c:v>
+                  <c:v>787569.83</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Datos Lab7'!$C$11:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>27466.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19591.560000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>17956.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16805.400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,16 +1329,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14165365.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3179718.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2400392.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1971988.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,19 +1484,19 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$11:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1698809.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1088613.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>884653.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>787569.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,6 +1632,7 @@
         <c:axId val="1086959919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1750000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2938,7 +2877,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CAFD5B44-21B9-42C7-B503-C146EF1BA3EE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2949,7 +2888,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{680E7371-595A-4F03-ABE3-E0257A96E5F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0"/>
+    <sheetView zoomScale="81" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2960,7 +2899,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8683256" cy="6305698"/>
+    <xdr:ext cx="8669867" cy="6282267"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2993,7 +2932,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8683256" cy="6305698"/>
+    <xdr:ext cx="8675955" cy="6285787"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3023,19 +2962,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C6" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A2:C6" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)"/>
-    <tableColumn id="5" xr3:uid="{F280BCD9-1105-4F25-860B-4E27D28E75B2}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tiempo de Ejecución Real @LP [ms]" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F280BCD9-1105-4F25-860B-4E27D28E75B2}" name="Consumo de Datos [kB]" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tiempo de Ejecución Real @LP [ms]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A10:C14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A10:C14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A10:C14" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
@@ -3345,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3374,48 +3313,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>0.1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
+      <c r="B3" s="5">
+        <v>14165365.43</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
+      <c r="C3" s="7">
+        <v>276134.01</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
+      <c r="B4" s="2">
+        <v>3179718.32</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
+      <c r="C4" s="7">
+        <v>46992.85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>0.7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+      <c r="B5" s="2">
+        <v>2400392.2000000002</v>
       </c>
       <c r="C5" s="7">
         <v>37497</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>0.9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+      <c r="B6" s="2">
+        <v>1971988.06</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
+      <c r="C6" s="7">
+        <v>32179.43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -3436,48 +3375,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
+      <c r="B11" s="12">
+        <v>1698809.11</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
+      <c r="C11" s="13">
+        <v>27466.22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
+      <c r="B12" s="12">
+        <v>1088613.95</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
+      <c r="C12" s="12">
+        <v>19591.560000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
+      <c r="B13" s="12">
+        <v>884653.55</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
+      <c r="C13" s="12">
+        <v>17956.07</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
+      <c r="B14" s="12">
+        <v>787569.83</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
+      <c r="C14" s="12">
+        <v>16805.400000000001</v>
       </c>
     </row>
     <row r="23" ht="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3506,6 +3445,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -3754,27 +3702,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10B9E65-6C88-4633-81F7-F02338B2B10B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3791,12 +3744,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>